--- a/data/points_of_interest.xlsx
+++ b/data/points_of_interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franc\Documents\Projects\neighborhood_exploration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A58F1-0558-4C8D-90BA-DD0D6C074278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3571B2-8E09-40E7-BBB9-344838534C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="2438" windowWidth="8618" windowHeight="13057" xr2:uid="{C9E46A9A-011D-476F-A71B-ABFC7203121A}"/>
+    <workbookView xWindow="9150" yWindow="2145" windowWidth="8618" windowHeight="13058" xr2:uid="{C9E46A9A-011D-476F-A71B-ABFC7203121A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Zip</t>
   </si>
   <si>
@@ -68,18 +65,9 @@
     <t>Denver</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>2373 15th St</t>
   </si>
   <si>
-    <t>Loft</t>
-  </si>
-  <si>
-    <t>White House Black Market</t>
-  </si>
-  <si>
     <t>Macy's</t>
   </si>
   <si>
@@ -92,9 +80,6 @@
     <t>15 S Steele St.</t>
   </si>
   <si>
-    <t>Cherry Creek Shopping Center</t>
-  </si>
-  <si>
     <t>8298 Northfield Blvd.</t>
   </si>
   <si>
@@ -120,6 +105,132 @@
   </si>
   <si>
     <t>Furniture</t>
+  </si>
+  <si>
+    <t>Cherry Creek Shopping</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Athleta, Loft, White House Black Market</t>
+  </si>
+  <si>
+    <t>Cherry Creek East</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>500 16th St Mall</t>
+  </si>
+  <si>
+    <t>4700 W 38th Ave</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Safeway</t>
+  </si>
+  <si>
+    <t>2660 N Federal Blvd.</t>
+  </si>
+  <si>
+    <t>Whole Foods</t>
+  </si>
+  <si>
+    <t>1701 Wewatta St</t>
+  </si>
+  <si>
+    <t>King Soopers</t>
+  </si>
+  <si>
+    <t>1950 Chestnut Pl</t>
+  </si>
+  <si>
+    <t>Target Grocery</t>
+  </si>
+  <si>
+    <t>1600 California St</t>
+  </si>
+  <si>
+    <t>757 E 20th Ave</t>
+  </si>
+  <si>
+    <t>Ideal Market Denver</t>
+  </si>
+  <si>
+    <t>900 E 11th Ave</t>
+  </si>
+  <si>
+    <t>1155 E 9th Ave</t>
+  </si>
+  <si>
+    <t>Trader Joe's</t>
+  </si>
+  <si>
+    <t>661 Logan St</t>
+  </si>
+  <si>
+    <t>750 Colorado Blvd</t>
+  </si>
+  <si>
+    <t>Whole Foods Market</t>
+  </si>
+  <si>
+    <t>323 S Broadway</t>
+  </si>
+  <si>
+    <t>2375 E 1st Ave</t>
+  </si>
+  <si>
+    <t>Sprouts Farmers Market</t>
+  </si>
+  <si>
+    <t>197 E Mississippi Ave</t>
+  </si>
+  <si>
+    <t>1653 S Colorado Blvd</t>
+  </si>
+  <si>
+    <t>825 S Colorado Blvd</t>
+  </si>
+  <si>
+    <t>6220 E 14th Ave</t>
+  </si>
+  <si>
+    <t>10406 MLK Jr. Blvd</t>
+  </si>
+  <si>
+    <t>1355 Krameria St</t>
+  </si>
+  <si>
+    <t>2810 Quebec St</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>7800 Smith Rd</t>
+  </si>
+  <si>
+    <t>7390 Northfield Blvd.</t>
+  </si>
+  <si>
+    <t>3555 Central Park Blvd</t>
+  </si>
+  <si>
+    <t>7400 E Hampden Ave Unit D</t>
+  </si>
+  <si>
+    <t>2750 S Colorado Blvd</t>
+  </si>
+  <si>
+    <t>2880 S Colorado Blvd</t>
+  </si>
+  <si>
+    <t>2770 W Evans Ave</t>
   </si>
 </sst>
 </file>
@@ -471,241 +582,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE46A4AF-54E2-49E5-903A-654741FE7E61}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>80206</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>80209</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>80202</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>80202</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>80238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>80202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>80012</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>80226</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>80206</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>80202</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>80212</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>80211</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>80202</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>80202</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>80202</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>80205</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>80218</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>80218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>80203</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
         <v>80206</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>80206</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>80209</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>80209</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>80222</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>80246</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>80220</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
         <v>80238</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>80202</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>80012</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>80226</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>80206</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>80220</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>80207</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>80207</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>80238</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>80238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>80231</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>80222</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>80222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>80219</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
